--- a/testResources/runner.xlsx
+++ b/testResources/runner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumarmu\Documents\pythonSelenium\HybridFramework\testResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E4CBB-114B-4782-806C-39C5DE4AA4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E77B6-6B7F-4663-AF38-ABB2BBE63AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -47,9 +47,6 @@
     <t>TestB</t>
   </si>
   <si>
-    <t>TestC</t>
-  </si>
-  <si>
     <t>TestD</t>
   </si>
   <si>
@@ -180,6 +177,42 @@
   </si>
   <si>
     <t>doLogin</t>
+  </si>
+  <si>
+    <t>CreateAlert</t>
+  </si>
+  <si>
+    <t>alertmenu_id</t>
+  </si>
+  <si>
+    <t>addlink_xpath</t>
+  </si>
+  <si>
+    <t>alertnameTextBox_id</t>
+  </si>
+  <si>
+    <t>eventDrpdn_id</t>
+  </si>
+  <si>
+    <t>coreConcOnlineSelectValue_xpath</t>
+  </si>
+  <si>
+    <t>frequencyOnceRdo_id</t>
+  </si>
+  <si>
+    <t>usegroupssuperChkbox_xpath</t>
+  </si>
+  <si>
+    <t>alertsaveBtn_id</t>
+  </si>
+  <si>
+    <t>AlertName</t>
+  </si>
+  <si>
+    <t>alert_1</t>
+  </si>
+  <si>
+    <t>alert_2</t>
   </si>
 </sst>
 </file>
@@ -534,12 +567,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -552,7 +585,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -560,26 +593,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -625,17 +658,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4395B03-8D13-414E-A183-0076A57F0FBC}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.90625" customWidth="1"/>
     <col min="2" max="2" width="32.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,229 +688,361 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,20 +1052,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91B903-77E0-451F-B6DE-E0FCDE0B55DD}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -908,54 +1074,54 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -968,73 +1134,73 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1042,39 +1208,77 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
